--- a/Dossier Stage/gestion projet Phase 1.0/Gestion de projet Projet Phaselec PHASE 1,0.xlsx
+++ b/Dossier Stage/gestion projet Phase 1.0/Gestion de projet Projet Phaselec PHASE 1,0.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t xml:space="preserve">N°</t>
   </si>
@@ -104,8 +104,7 @@
     <t xml:space="preserve">Les rendez-vous sont intégrer dans l’application</t>
   </si>
   <si>
-    <t xml:space="preserve">Récupération des rendez-vous  dans la vue COMPTE de Microsoft Common Data Service
-</t>
+    <t xml:space="preserve">Récupération des rendez-vous  dans la vue COMPTE de Microsoft Common Data Service</t>
   </si>
   <si>
     <t xml:space="preserve">Récupérer les rendez vous dans la vue COMPTE de Microsoft Common Data service</t>
@@ -189,7 +188,7 @@
     <t xml:space="preserve">Moyenne avancement projet</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint 1</t>
+    <t xml:space="preserve">Sprint 3</t>
   </si>
   <si>
     <t xml:space="preserve">terminer</t>
@@ -198,52 +197,13 @@
     <t xml:space="preserve">Terminer</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyse exploratoire des données</t>
-  </si>
-  <si>
     <t xml:space="preserve">non commencé</t>
   </si>
   <si>
-    <t xml:space="preserve">Nettoyage des données</t>
+    <t xml:space="preserve">Création de la liaison en Microsoft Common Data Service et GestQuo</t>
   </si>
   <si>
-    <t xml:space="preserve">Définition des champs pour l'entité OPPORTUNITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définition des règles d'entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définition des vue pour les formulaires de saisie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création du formulaire de l'entité COMPTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création du formulaire de l'entité CONTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création du formulaire de l'entté OPPORTUNITE et choix des champs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mappage des champs de la DB de Zoho pour l'entité COMPTE et import des données vers CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mappage des champs de la DB de Zoho pour l'entité CONTACT et import des données vers CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mappage des champs de la DB de Zoho pour l'entité OPPORTUNITE et import des données vers CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création des alertes de relance de suivi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test de l'application pour Desktop et Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test des alertes de relance de suivi de l'APP</t>
+    <t xml:space="preserve">Récupération des rendez-vous dans les agendas personnels</t>
   </si>
 </sst>
 </file>
@@ -516,7 +476,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,11 +567,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="96.57"/>
@@ -673,7 +633,9 @@
         <v>11</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
@@ -692,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -707,14 +669,14 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="n">
-        <v>13</v>
+      <c r="D5" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -726,16 +688,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="n">
-        <v>14</v>
+      <c r="D6" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>24</v>
@@ -748,12 +710,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5" t="n">
+        <v>5</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
@@ -766,14 +732,14 @@
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="n">
-        <v>15</v>
+      <c r="D8" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>31</v>
@@ -787,14 +753,14 @@
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="n">
-        <v>16</v>
+      <c r="D9" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>35</v>
@@ -808,14 +774,14 @@
     </row>
     <row r="10" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4" t="n">
-        <v>17</v>
+      <c r="D10" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>39</v>
@@ -4797,21 +4763,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K999"/>
+  <dimension ref="A1:K990"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="11" style="0" width="11.57"/>
@@ -4876,25 +4842,21 @@
       <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="20" t="e">
         <f aca="false">+F4/(F4+G4)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="21" t="n">
-        <f aca="false">AVERAGE(H4:H17)</f>
-        <v>0.0714285714285714</v>
+      <c r="J4" s="21" t="e">
+        <f aca="false">AVERAGE(H4:H11)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="K4" s="22"/>
     </row>
@@ -4906,15 +4868,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="19"/>
-      <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
@@ -4927,23 +4887,21 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="19"/>
-      <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
@@ -4956,23 +4914,21 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
+      <c r="C7" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="n">
         <v>1</v>
       </c>
@@ -4985,23 +4941,21 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
@@ -5015,22 +4969,20 @@
       <c r="K8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
+      <c r="C9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
@@ -5051,15 +5003,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="n">
         <v>1</v>
       </c>
@@ -5074,21 +5024,19 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="4" t="n">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
@@ -5102,22 +5050,20 @@
       <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="4" t="n">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
@@ -5131,304 +5077,70 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="n">
-        <f aca="false">+F13/(F13+G13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="H13" s="26"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20" t="n">
-        <f aca="false">+F14/(F14+G14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="H14" s="26"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20" t="n">
-        <f aca="false">+F15/(F15+G15)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="H15" s="26"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20" t="n">
-        <f aca="false">+F16/(F16+G16)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="n">
-        <f aca="false">+F17/(F17+G17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="H17" s="26"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20" t="n">
-        <f aca="false">+F18/(F18+G18)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20" t="n">
-        <f aca="false">+F19/(F19+G19)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20" t="n">
-        <f aca="false">+F20/(F20+G20)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20" t="n">
-        <f aca="false">+F21/(F21+G21)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="K21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="H22" s="26"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="H23" s="26"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="H24" s="26"/>
       <c r="K24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="H25" s="26"/>
       <c r="K25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="H26" s="26"/>
       <c r="K26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
       <c r="K27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8319,33 +8031,6 @@
     </row>
     <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K990" s="13"/>
-    </row>
-    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K991" s="13"/>
-    </row>
-    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K992" s="13"/>
-    </row>
-    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K993" s="13"/>
-    </row>
-    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K994" s="13"/>
-    </row>
-    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K995" s="13"/>
-    </row>
-    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K996" s="13"/>
-    </row>
-    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K997" s="13"/>
-    </row>
-    <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K998" s="13"/>
-    </row>
-    <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K999" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
